--- a/biology/Zoologie/Grondin_(poisson)/Grondin_(poisson).xlsx
+++ b/biology/Zoologie/Grondin_(poisson)/Grondin_(poisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grondin ou rouget, plus rarement trigle, est un nom vernaculaire ou commercial qui désigne en français plusieurs espèces de poissons, surtout dans les genres Trigla et Prionotus.
 Les Grondins ont en commun la faculté de produire à l'aide de leur vessie natatoire une sorte de grondement audible lorsqu'ils sont blessés ou qu'on les sort de l'eau, ainsi que de posséder une grosse tête pyramidale cuirassée et des nageoires pectorales munies de pattes leur permettant de marcher au fond de l'eau.
@@ -513,7 +525,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste non exhaustive présentée sous forme de tableau triable :
 </t>
@@ -544,9 +558,11 @@
           <t>Dénominations commerciales officielles des Grondins (France)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(Direction générale de la concurrence, de la consommation et de la répression des fraudes)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Direction générale de la concurrence, de la consommation et de la répression des fraudes).
 Liste des appellations commerciales reconnues en France, sous la surveillance de la DGCCRF. Il est à noter que six sur huit des poissons vendus en France peuvent s'appeler « Grondin », sans autre précision.
 </t>
         </is>
